--- a/biology/Zoologie/Chirocephalidae/Chirocephalidae.xlsx
+++ b/biology/Zoologie/Chirocephalidae/Chirocephalidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chirocephalidae sont une famille d'anostracés (Anostraca), des crustacés branchiopodes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 décembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 décembre 2017) :
 genre Artemiopsis Sars, 1897
 genre Branchinectella Daday, 1910
 genre Chirocephalus Prévost, 1803
@@ -521,7 +535,7 @@
 genre Drepanosurus Simon, 1886
 genre Eubranchipus Verrill, 1870
 genre Pristicephalus
-Selon Catalogue of Life                                   (14 décembre 2017)[3] :
+Selon Catalogue of Life                                   (14 décembre 2017) :
 genre Artemiopsis
 genre Branchinectella
 genre Chirocephalus
@@ -530,7 +544,7 @@
 genre Linderiella
 genre Polyartemia
 genre Polyartemiella
-Selon ITIS      (14 décembre 2017)[1] :
+Selon ITIS      (14 décembre 2017) :
 genre Artemiopsis G. O. Sars, 1897
 genre Branchinectella Daday de Dées, 1910
 genre Chirocephalus Prévost, 1820
@@ -566,9 +580,11 @@
           <t>Liste de genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (14 décembre 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (14 décembre 2017) :
 genre Artemiopsis
 Artemiopsis stefanssoni
 genre Chirocephalus
@@ -619,7 +635,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Daday, 1910 : Monographie systématique des Phyllopodes anostracés. pp. 1-399 (texte intégral) (fr) et (la).</t>
         </is>
